--- a/docs/odh/odh-UsualIndustry-model.xlsx
+++ b/docs/odh/odh-UsualIndustry-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="106">
   <si>
     <t>Path</t>
   </si>
@@ -135,7 +135,7 @@
   </si>
   <si>
     <t>The industry (type of business) in which the subject has worked for the longest duration while in the usual occupation.
-For example, a person who has spent 30 years as a secretary in various industries, but mostly in construction, would record a usual occupation of secretary and a usual industry of construction.</t>
+For example, a person who has spent 30 years as a building carpenter in various industries, but mostly in construction, would record a usual occupation of building carpenter and a usual industry of construction.</t>
   </si>
   <si>
     <t>odh-UsualIndustry-model.code</t>
@@ -322,10 +322,19 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
+    <t>odh-UsualIndustry-model.interpretation</t>
+  </si>
+  <si>
+    <t>A clinical interpretation of a finding (applies to both assertions and observation).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+  </si>
+  <si>
     <t>odh-UsualIndustry-model.referenceRange</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferenceRange-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferenceRange-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -333,19 +342,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0883335
-</t>
-  </si>
-  <si>
-    <t>odh-UsualIndustry-model.interpretation</t>
-  </si>
-  <si>
-    <t>A clinical interpretation of a finding (applies to both assertions and observation).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0420833
 </t>
   </si>
 </sst>
@@ -495,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1738,7 +1734,7 @@
         <v>37</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>36</v>
@@ -1750,13 +1746,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1783,16 +1779,14 @@
         <v>36</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>36</v>
@@ -1813,7 +1807,7 @@
         <v>37</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>36</v>
@@ -1824,7 +1818,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1835,7 +1829,7 @@
         <v>37</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>36</v>
@@ -1847,7 +1841,7 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>104</v>
@@ -1880,15 +1874,17 @@
         <v>36</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z14" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AA14" t="s" s="2">
         <v>36</v>
       </c>
@@ -1902,13 +1898,13 @@
         <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>36</v>
